--- a/notebooks/evaluation/main_table/tables/cvrp20.xlsx
+++ b/notebooks/evaluation/main_table/tables/cvrp20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm-xl</t>
+          <t>am-critic-cvrp20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>2.811505645513535</v>
+        <v>4.995794966816902</v>
       </c>
       <c r="E2" t="n">
-        <v>6.312663078308105</v>
+        <v>6.460940837860107</v>
       </c>
       <c r="F2" t="n">
-        <v>642.1329956054688</v>
+        <v>399.388671875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm-xl</t>
+          <t>am-critic-cvrp20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -500,95 +500,95 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.010028250515461</v>
+        <v>1.352803315967321</v>
       </c>
       <c r="E3" t="n">
-        <v>6.259388446807861</v>
+        <v>6.216229438781738</v>
       </c>
       <c r="F3" t="n">
-        <v>874.345458984375</v>
+        <v>229633.359375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm-xl</t>
+          <t>am-critic-cvrp20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.491377223283052</v>
+        <v>2.084165625274181</v>
       </c>
       <c r="E4" t="n">
-        <v>6.225399017333984</v>
+        <v>6.263796806335449</v>
       </c>
       <c r="F4" t="n">
-        <v>1674.24609375</v>
+        <v>234978.484375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm-xl</t>
+          <t>am-critic-cvrp20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.109126303344965</v>
+        <v>3.038558922708035</v>
       </c>
       <c r="E5" t="n">
-        <v>6.200570106506348</v>
+        <v>6.326662540435791</v>
       </c>
       <c r="F5" t="n">
-        <v>3309.168701171875</v>
+        <v>4550.97119140625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm-xl</t>
+          <t>am-critic-cvrp20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.983409583568573</v>
+        <v>1.116728037595749</v>
       </c>
       <c r="E6" t="n">
-        <v>6.192545890808105</v>
+        <v>6.200997829437256</v>
       </c>
       <c r="F6" t="n">
-        <v>6606.11669921875</v>
+        <v>79280.375</v>
       </c>
     </row>
     <row r="7">
@@ -599,22 +599,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.8615493774414062</v>
+        <v>2.811505645513535</v>
       </c>
       <c r="E7" t="n">
-        <v>6.184644222259521</v>
+        <v>6.312663078308105</v>
       </c>
       <c r="F7" t="n">
-        <v>13223.927734375</v>
+        <v>642.1329956054688</v>
       </c>
     </row>
     <row r="8">
@@ -630,17 +626,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7775798905640841</v>
+        <v>2.010028250515461</v>
       </c>
       <c r="E8" t="n">
-        <v>6.179261684417725</v>
+        <v>6.259388446807861</v>
       </c>
       <c r="F8" t="n">
-        <v>26592.138671875</v>
+        <v>874.345458984375</v>
       </c>
     </row>
     <row r="9">
@@ -656,17 +652,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.725445244461298</v>
+        <v>1.491377223283052</v>
       </c>
       <c r="E9" t="n">
-        <v>6.175955295562744</v>
+        <v>6.225399017333984</v>
       </c>
       <c r="F9" t="n">
-        <v>53110.65625</v>
+        <v>1674.24609375</v>
       </c>
     </row>
     <row r="10">
@@ -682,17 +678,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7010260596871376</v>
+        <v>1.109126303344965</v>
       </c>
       <c r="E10" t="n">
-        <v>6.174380302429199</v>
+        <v>6.200570106506348</v>
       </c>
       <c r="F10" t="n">
-        <v>106093.3359375</v>
+        <v>3309.168701171875</v>
       </c>
     </row>
     <row r="11">
@@ -708,17 +704,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6873549427837133</v>
+        <v>0.983409583568573</v>
       </c>
       <c r="E11" t="n">
-        <v>6.173506736755371</v>
+        <v>6.192545890808105</v>
       </c>
       <c r="F11" t="n">
-        <v>211077.3125</v>
+        <v>6606.11669921875</v>
       </c>
     </row>
     <row r="12">
@@ -734,17 +730,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6804846227169037</v>
+        <v>0.8615493774414062</v>
       </c>
       <c r="E12" t="n">
-        <v>6.17305326461792</v>
+        <v>6.184644222259521</v>
       </c>
       <c r="F12" t="n">
-        <v>539919.5625</v>
+        <v>13223.927734375</v>
       </c>
     </row>
     <row r="13">
@@ -755,22 +751,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.176860462874174</v>
+        <v>0.7775798905640841</v>
       </c>
       <c r="E13" t="n">
-        <v>6.20491886138916</v>
+        <v>6.179261684417725</v>
       </c>
       <c r="F13" t="n">
-        <v>3341.54443359375</v>
+        <v>26592.138671875</v>
       </c>
     </row>
     <row r="14">
@@ -781,22 +777,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.571045234799385</v>
+        <v>0.725445244461298</v>
       </c>
       <c r="E14" t="n">
-        <v>6.296478271484375</v>
+        <v>6.175955295562744</v>
       </c>
       <c r="F14" t="n">
-        <v>891.3275146484375</v>
+        <v>53110.65625</v>
       </c>
     </row>
     <row r="15">
@@ -807,22 +803,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.344841510057449</v>
+        <v>0.7010260596871376</v>
       </c>
       <c r="E15" t="n">
-        <v>6.281332969665527</v>
+        <v>6.174380302429199</v>
       </c>
       <c r="F15" t="n">
-        <v>1701.505004882812</v>
+        <v>106093.3359375</v>
       </c>
     </row>
     <row r="16">
@@ -833,22 +829,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.189934439957142</v>
+        <v>0.6873549427837133</v>
       </c>
       <c r="E16" t="n">
-        <v>6.271033763885498</v>
+        <v>6.173506736755371</v>
       </c>
       <c r="F16" t="n">
-        <v>3360.9296875</v>
+        <v>211077.3125</v>
       </c>
     </row>
     <row r="17">
@@ -859,22 +855,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.046787180006504</v>
+        <v>0.6804846227169037</v>
       </c>
       <c r="E17" t="n">
-        <v>6.261502742767334</v>
+        <v>6.17305326461792</v>
       </c>
       <c r="F17" t="n">
-        <v>6683.9912109375</v>
+        <v>539919.5625</v>
       </c>
     </row>
     <row r="18">
@@ -885,22 +881,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.925420761108398</v>
+        <v>1.176860462874174</v>
       </c>
       <c r="E18" t="n">
-        <v>6.253514766693115</v>
+        <v>6.20491886138916</v>
       </c>
       <c r="F18" t="n">
-        <v>13350.5419921875</v>
+        <v>3341.54443359375</v>
       </c>
     </row>
     <row r="19">
@@ -916,17 +912,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.823879778385162</v>
+        <v>2.571045234799385</v>
       </c>
       <c r="E19" t="n">
-        <v>6.246884346008301</v>
+        <v>6.296478271484375</v>
       </c>
       <c r="F19" t="n">
-        <v>26607.439453125</v>
+        <v>891.3275146484375</v>
       </c>
     </row>
     <row r="20">
@@ -942,17 +938,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.716052182018757</v>
+        <v>2.344841510057449</v>
       </c>
       <c r="E20" t="n">
-        <v>6.239691734313965</v>
+        <v>6.281332969665527</v>
       </c>
       <c r="F20" t="n">
-        <v>53136.109375</v>
+        <v>1701.505004882812</v>
       </c>
     </row>
     <row r="21">
@@ -968,17 +964,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.63513608276844</v>
+        <v>2.189934439957142</v>
       </c>
       <c r="E21" t="n">
-        <v>6.234402656555176</v>
+        <v>6.271033763885498</v>
       </c>
       <c r="F21" t="n">
-        <v>105838.2421875</v>
+        <v>3360.9296875</v>
       </c>
     </row>
     <row r="22">
@@ -994,17 +990,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.557437609881163</v>
+        <v>2.046787180006504</v>
       </c>
       <c r="E22" t="n">
-        <v>6.229339122772217</v>
+        <v>6.261502742767334</v>
       </c>
       <c r="F22" t="n">
-        <v>211608.109375</v>
+        <v>6683.9912109375</v>
       </c>
     </row>
     <row r="23">
@@ -1020,17 +1016,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.459857169538736</v>
+        <v>1.925420761108398</v>
       </c>
       <c r="E23" t="n">
-        <v>6.22288179397583</v>
+        <v>6.253514766693115</v>
       </c>
       <c r="F23" t="n">
-        <v>542004.75</v>
+        <v>13350.5419921875</v>
       </c>
     </row>
     <row r="24">
@@ -1041,22 +1037,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.38147035613656</v>
+        <v>1.823879778385162</v>
       </c>
       <c r="E24" t="n">
-        <v>6.217554092407227</v>
+        <v>6.246884346008301</v>
       </c>
       <c r="F24" t="n">
-        <v>4799.11328125</v>
+        <v>26607.439453125</v>
       </c>
     </row>
     <row r="25">
@@ -1067,22 +1063,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.550858536735177</v>
+        <v>1.716052182018757</v>
       </c>
       <c r="E25" t="n">
-        <v>6.164616584777832</v>
+        <v>6.239691734313965</v>
       </c>
       <c r="F25" t="n">
-        <v>41118.98046875</v>
+        <v>53136.109375</v>
       </c>
     </row>
     <row r="26">
@@ -1093,22 +1089,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9882733225822449</v>
+        <v>1.63513608276844</v>
       </c>
       <c r="E26" t="n">
-        <v>6.1924147605896</v>
+        <v>6.234402656555176</v>
       </c>
       <c r="F26" t="n">
-        <v>10273.353515625</v>
+        <v>105838.2421875</v>
       </c>
     </row>
     <row r="27">
@@ -1119,22 +1115,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7142359390854836</v>
+        <v>1.557437609881163</v>
       </c>
       <c r="E27" t="n">
-        <v>6.174960136413574</v>
+        <v>6.229339122772217</v>
       </c>
       <c r="F27" t="n">
-        <v>20467.111328125</v>
+        <v>211608.109375</v>
       </c>
     </row>
     <row r="28">
@@ -1145,22 +1141,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5152666475623846</v>
+        <v>1.459857169538736</v>
       </c>
       <c r="E28" t="n">
-        <v>6.162396907806396</v>
+        <v>6.22288179397583</v>
       </c>
       <c r="F28" t="n">
-        <v>41148.17578125</v>
+        <v>542004.75</v>
       </c>
     </row>
     <row r="29">
@@ -1171,148 +1167,152 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_16_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4429054912179708</v>
+        <v>1.38147035613656</v>
       </c>
       <c r="E29" t="n">
-        <v>6.157848834991455</v>
+        <v>6.217554092407227</v>
       </c>
       <c r="F29" t="n">
-        <v>82891.2265625</v>
+        <v>4799.11328125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>symnco-cvrp20</t>
+          <t>am-cvrp20-sm-xl</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D30" t="n">
-        <v>2.58143525570631</v>
+        <v>0.550858536735177</v>
       </c>
       <c r="E30" t="n">
-        <v>6.297154426574707</v>
+        <v>6.164616584777832</v>
       </c>
       <c r="F30" t="n">
-        <v>643.0576782226562</v>
+        <v>41118.98046875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>symnco-cvrp20</t>
+          <t>am-cvrp20-sm-xl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_20_num_augment_2_</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.906724832952023</v>
+        <v>0.9882733225822449</v>
       </c>
       <c r="E31" t="n">
-        <v>6.252601623535156</v>
+        <v>6.1924147605896</v>
       </c>
       <c r="F31" t="n">
-        <v>884.73291015625</v>
+        <v>10273.353515625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>symnco-cvrp20</t>
+          <t>am-cvrp20-sm-xl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_20_num_augment_4_</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.448453217744827</v>
+        <v>0.7142359390854836</v>
       </c>
       <c r="E32" t="n">
-        <v>6.222793102264404</v>
+        <v>6.174960136413574</v>
       </c>
       <c r="F32" t="n">
-        <v>1700.073486328125</v>
+        <v>20467.111328125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>symnco-cvrp20</t>
+          <t>am-cvrp20-sm-xl</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_num_augment_8_</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.152524445205927</v>
+        <v>0.5152666475623846</v>
       </c>
       <c r="E33" t="n">
-        <v>6.203612327575684</v>
+        <v>6.162396907806396</v>
       </c>
       <c r="F33" t="n">
-        <v>3339.953125</v>
+        <v>41148.17578125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>symnco-cvrp20</t>
+          <t>am-cvrp20-sm-xl</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.082768663764</v>
+        <v>0.4429054912179708</v>
       </c>
       <c r="E34" t="n">
-        <v>6.199141025543213</v>
+        <v>6.157848834991455</v>
       </c>
       <c r="F34" t="n">
-        <v>6672.5009765625</v>
+        <v>82891.2265625</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0.9953651577234268</v>
+        <v>2.58143525570631</v>
       </c>
       <c r="E35" t="n">
-        <v>6.193591594696045</v>
+        <v>6.297154426574707</v>
       </c>
       <c r="F35" t="n">
-        <v>13341.1328125</v>
+        <v>643.0576782226562</v>
       </c>
     </row>
     <row r="36">
@@ -1354,17 +1350,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9128144010901451</v>
+        <v>1.906724832952023</v>
       </c>
       <c r="E36" t="n">
-        <v>6.188324928283691</v>
+        <v>6.252601623535156</v>
       </c>
       <c r="F36" t="n">
-        <v>26636.443359375</v>
+        <v>884.73291015625</v>
       </c>
     </row>
     <row r="37">
@@ -1380,17 +1376,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8566352538764477</v>
+        <v>1.448453217744827</v>
       </c>
       <c r="E37" t="n">
-        <v>6.184685230255127</v>
+        <v>6.222793102264404</v>
       </c>
       <c r="F37" t="n">
-        <v>53262.7734375</v>
+        <v>1700.073486328125</v>
       </c>
     </row>
     <row r="38">
@@ -1406,17 +1402,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8027595467865467</v>
+        <v>1.152524445205927</v>
       </c>
       <c r="E38" t="n">
-        <v>6.181221008300781</v>
+        <v>6.203612327575684</v>
       </c>
       <c r="F38" t="n">
-        <v>106275.8671875</v>
+        <v>3339.953125</v>
       </c>
     </row>
     <row r="39">
@@ -1432,17 +1428,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.75800446793437</v>
+        <v>1.082768663764</v>
       </c>
       <c r="E39" t="n">
-        <v>6.178303718566895</v>
+        <v>6.199141025543213</v>
       </c>
       <c r="F39" t="n">
-        <v>211591.875</v>
+        <v>6672.5009765625</v>
       </c>
     </row>
     <row r="40">
@@ -1458,17 +1454,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7072169333696365</v>
+        <v>0.9953651577234268</v>
       </c>
       <c r="E40" t="n">
-        <v>6.174995899200439</v>
+        <v>6.193591594696045</v>
       </c>
       <c r="F40" t="n">
-        <v>541615.9375</v>
+        <v>13341.1328125</v>
       </c>
     </row>
     <row r="41">
@@ -1479,22 +1475,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.216921303421259</v>
+        <v>0.9128144010901451</v>
       </c>
       <c r="E41" t="n">
-        <v>6.207784175872803</v>
+        <v>6.188324928283691</v>
       </c>
       <c r="F41" t="n">
-        <v>3359.35498046875</v>
+        <v>26636.443359375</v>
       </c>
     </row>
     <row r="42">
@@ -1505,22 +1501,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.378365397453308</v>
+        <v>0.8566352538764477</v>
       </c>
       <c r="E42" t="n">
-        <v>6.283543586730957</v>
+        <v>6.184685230255127</v>
       </c>
       <c r="F42" t="n">
-        <v>893.0078735351562</v>
+        <v>53262.7734375</v>
       </c>
     </row>
     <row r="43">
@@ -1531,22 +1527,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.20328327268362</v>
+        <v>0.8027595467865467</v>
       </c>
       <c r="E43" t="n">
-        <v>6.271849155426025</v>
+        <v>6.181221008300781</v>
       </c>
       <c r="F43" t="n">
-        <v>1707.218017578125</v>
+        <v>106275.8671875</v>
       </c>
     </row>
     <row r="44">
@@ -1557,22 +1553,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.061177417635918</v>
+        <v>0.75800446793437</v>
       </c>
       <c r="E44" t="n">
-        <v>6.2623291015625</v>
+        <v>6.178303718566895</v>
       </c>
       <c r="F44" t="n">
-        <v>3374.30517578125</v>
+        <v>211591.875</v>
       </c>
     </row>
     <row r="45">
@@ -1583,22 +1579,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.952889002859592</v>
+        <v>0.7072169333696365</v>
       </c>
       <c r="E45" t="n">
-        <v>6.255264282226562</v>
+        <v>6.174995899200439</v>
       </c>
       <c r="F45" t="n">
-        <v>6716.056640625</v>
+        <v>541615.9375</v>
       </c>
     </row>
     <row r="46">
@@ -1609,22 +1605,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.845966093242168</v>
+        <v>1.216921303421259</v>
       </c>
       <c r="E46" t="n">
-        <v>6.248240947723389</v>
+        <v>6.207784175872803</v>
       </c>
       <c r="F46" t="n">
-        <v>13389.873046875</v>
+        <v>3359.35498046875</v>
       </c>
     </row>
     <row r="47">
@@ -1640,17 +1636,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.749067008495331</v>
+        <v>2.378365397453308</v>
       </c>
       <c r="E47" t="n">
-        <v>6.241893768310547</v>
+        <v>6.283543586730957</v>
       </c>
       <c r="F47" t="n">
-        <v>26695.640625</v>
+        <v>893.0078735351562</v>
       </c>
     </row>
     <row r="48">
@@ -1666,17 +1662,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.678329519927502</v>
+        <v>2.20328327268362</v>
       </c>
       <c r="E48" t="n">
-        <v>6.237236499786377</v>
+        <v>6.271849155426025</v>
       </c>
       <c r="F48" t="n">
-        <v>53243.16015625</v>
+        <v>1707.218017578125</v>
       </c>
     </row>
     <row r="49">
@@ -1692,17 +1688,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.600994355976582</v>
+        <v>2.061177417635918</v>
       </c>
       <c r="E49" t="n">
-        <v>6.232099056243896</v>
+        <v>6.2623291015625</v>
       </c>
       <c r="F49" t="n">
-        <v>106371.015625</v>
+        <v>3374.30517578125</v>
       </c>
     </row>
     <row r="50">
@@ -1718,17 +1714,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.517705712467432</v>
+        <v>1.952889002859592</v>
       </c>
       <c r="E50" t="n">
-        <v>6.226595878601074</v>
+        <v>6.255264282226562</v>
       </c>
       <c r="F50" t="n">
-        <v>212510.25</v>
+        <v>6716.056640625</v>
       </c>
     </row>
     <row r="51">
@@ -1744,17 +1740,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.439642440527678</v>
+        <v>1.845966093242168</v>
       </c>
       <c r="E51" t="n">
-        <v>6.221600532531738</v>
+        <v>6.248240947723389</v>
       </c>
       <c r="F51" t="n">
-        <v>547727.4375</v>
+        <v>13389.873046875</v>
       </c>
     </row>
     <row r="52">
@@ -1765,22 +1761,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.476479973644018</v>
+        <v>1.749067008495331</v>
       </c>
       <c r="E52" t="n">
-        <v>6.223670959472656</v>
+        <v>6.241893768310547</v>
       </c>
       <c r="F52" t="n">
-        <v>4731.0048828125</v>
+        <v>26695.640625</v>
       </c>
     </row>
     <row r="53">
@@ -1791,22 +1787,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6871935911476612</v>
+        <v>1.678329519927502</v>
       </c>
       <c r="E53" t="n">
-        <v>6.173456192016602</v>
+        <v>6.237236499786377</v>
       </c>
       <c r="F53" t="n">
-        <v>40885.1328125</v>
+        <v>53243.16015625</v>
       </c>
     </row>
     <row r="54">
@@ -1817,22 +1813,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.093739550560713</v>
+        <v>1.600994355976582</v>
       </c>
       <c r="E54" t="n">
-        <v>6.199313163757324</v>
+        <v>6.232099056243896</v>
       </c>
       <c r="F54" t="n">
-        <v>10273.916015625</v>
+        <v>106371.015625</v>
       </c>
     </row>
     <row r="55">
@@ -1843,22 +1839,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.8251478895545006</v>
+        <v>1.517705712467432</v>
       </c>
       <c r="E55" t="n">
-        <v>6.182221412658691</v>
+        <v>6.226595878601074</v>
       </c>
       <c r="F55" t="n">
-        <v>20546.57421875</v>
+        <v>212510.25</v>
       </c>
     </row>
     <row r="56">
@@ -1869,22 +1865,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.6495336070656776</v>
+        <v>1.439642440527678</v>
       </c>
       <c r="E56" t="n">
-        <v>6.171135425567627</v>
+        <v>6.221600532531738</v>
       </c>
       <c r="F56" t="n">
-        <v>41049.43359375</v>
+        <v>547727.4375</v>
       </c>
     </row>
     <row r="57">
@@ -1895,148 +1891,152 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_16_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.6122502963989973</v>
+        <v>1.476479973644018</v>
       </c>
       <c r="E57" t="n">
-        <v>6.168807983398438</v>
+        <v>6.223670959472656</v>
       </c>
       <c r="F57" t="n">
-        <v>82445.6796875</v>
+        <v>4731.0048828125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>pomo-cvrp20</t>
+          <t>symnco-cvrp20</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D58" t="n">
-        <v>2.996571362018585</v>
+        <v>0.6871935911476612</v>
       </c>
       <c r="E58" t="n">
-        <v>6.32534646987915</v>
+        <v>6.173456192016602</v>
       </c>
       <c r="F58" t="n">
-        <v>650.0986938476562</v>
+        <v>40885.1328125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>pomo-cvrp20</t>
+          <t>symnco-cvrp20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_20_num_augment_2_</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.272338606417179</v>
+        <v>1.093739550560713</v>
       </c>
       <c r="E59" t="n">
-        <v>6.277058601379395</v>
+        <v>6.199313163757324</v>
       </c>
       <c r="F59" t="n">
-        <v>882.5897216796875</v>
+        <v>10273.916015625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>pomo-cvrp20</t>
+          <t>symnco-cvrp20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_20_num_augment_4_</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.793037913739681</v>
+        <v>0.8251478895545006</v>
       </c>
       <c r="E60" t="n">
-        <v>6.245279788970947</v>
+        <v>6.182221412658691</v>
       </c>
       <c r="F60" t="n">
-        <v>1690.0771484375</v>
+        <v>20546.57421875</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>pomo-cvrp20</t>
+          <t>symnco-cvrp20</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_num_augment_8_</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.441492792218924</v>
+        <v>0.6495336070656776</v>
       </c>
       <c r="E61" t="n">
-        <v>6.222199440002441</v>
+        <v>6.171135425567627</v>
       </c>
       <c r="F61" t="n">
-        <v>3336.532958984375</v>
+        <v>41049.43359375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>pomo-cvrp20</t>
+          <t>symnco-cvrp20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.218313910067081</v>
+        <v>0.6122502963989973</v>
       </c>
       <c r="E62" t="n">
-        <v>6.207879066467285</v>
+        <v>6.168807983398438</v>
       </c>
       <c r="F62" t="n">
-        <v>6652.6494140625</v>
+        <v>82445.6796875</v>
       </c>
     </row>
     <row r="63">
@@ -2047,22 +2047,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>1.070225238800049</v>
+        <v>2.996571362018585</v>
       </c>
       <c r="E63" t="n">
-        <v>6.198348522186279</v>
+        <v>6.32534646987915</v>
       </c>
       <c r="F63" t="n">
-        <v>13316.8046875</v>
+        <v>650.0986938476562</v>
       </c>
     </row>
     <row r="64">
@@ -2078,17 +2074,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9760715067386627</v>
+        <v>2.272338606417179</v>
       </c>
       <c r="E64" t="n">
-        <v>6.192222118377686</v>
+        <v>6.277058601379395</v>
       </c>
       <c r="F64" t="n">
-        <v>26548.8203125</v>
+        <v>882.5897216796875</v>
       </c>
     </row>
     <row r="65">
@@ -2104,17 +2100,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9035630151629448</v>
+        <v>1.793037913739681</v>
       </c>
       <c r="E65" t="n">
-        <v>6.187551021575928</v>
+        <v>6.245279788970947</v>
       </c>
       <c r="F65" t="n">
-        <v>52956.20703125</v>
+        <v>1690.0771484375</v>
       </c>
     </row>
     <row r="66">
@@ -2130,17 +2126,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8729060180485249</v>
+        <v>1.441492792218924</v>
       </c>
       <c r="E66" t="n">
-        <v>6.1855788230896</v>
+        <v>6.222199440002441</v>
       </c>
       <c r="F66" t="n">
-        <v>105631.4921875</v>
+        <v>3336.532958984375</v>
       </c>
     </row>
     <row r="67">
@@ -2156,17 +2152,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.8463849313557148</v>
+        <v>1.218313910067081</v>
       </c>
       <c r="E67" t="n">
-        <v>6.183897495269775</v>
+        <v>6.207879066467285</v>
       </c>
       <c r="F67" t="n">
-        <v>210747.75</v>
+        <v>6652.6494140625</v>
       </c>
     </row>
     <row r="68">
@@ -2182,17 +2178,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8355520665645599</v>
+        <v>1.070225238800049</v>
       </c>
       <c r="E68" t="n">
-        <v>6.18319034576416</v>
+        <v>6.198348522186279</v>
       </c>
       <c r="F68" t="n">
-        <v>540731.875</v>
+        <v>13316.8046875</v>
       </c>
     </row>
     <row r="69">
@@ -2203,22 +2199,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.453525386750698</v>
+        <v>0.9760715067386627</v>
       </c>
       <c r="E69" t="n">
-        <v>6.223142147064209</v>
+        <v>6.192222118377686</v>
       </c>
       <c r="F69" t="n">
-        <v>3342.57470703125</v>
+        <v>26548.8203125</v>
       </c>
     </row>
     <row r="70">
@@ -2229,22 +2225,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2.63514406979084</v>
+        <v>0.9035630151629448</v>
       </c>
       <c r="E70" t="n">
-        <v>6.300955295562744</v>
+        <v>6.187551021575928</v>
       </c>
       <c r="F70" t="n">
-        <v>888.4848022460938</v>
+        <v>52956.20703125</v>
       </c>
     </row>
     <row r="71">
@@ -2255,22 +2251,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.270492538809776</v>
+        <v>0.8729060180485249</v>
       </c>
       <c r="E71" t="n">
-        <v>6.276794910430908</v>
+        <v>6.1855788230896</v>
       </c>
       <c r="F71" t="n">
-        <v>1705.585693359375</v>
+        <v>105631.4921875</v>
       </c>
     </row>
     <row r="72">
@@ -2281,22 +2277,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.040764130651951</v>
+        <v>0.8463849313557148</v>
       </c>
       <c r="E72" t="n">
-        <v>6.261603355407715</v>
+        <v>6.183897495269775</v>
       </c>
       <c r="F72" t="n">
-        <v>3371.283447265625</v>
+        <v>210747.75</v>
       </c>
     </row>
     <row r="73">
@@ -2307,22 +2303,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.817074976861477</v>
+        <v>0.8355520665645599</v>
       </c>
       <c r="E73" t="n">
-        <v>6.246775150299072</v>
+        <v>6.18319034576416</v>
       </c>
       <c r="F73" t="n">
-        <v>6703.666015625</v>
+        <v>540731.875</v>
       </c>
     </row>
     <row r="74">
@@ -2333,22 +2329,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.665779761970043</v>
+        <v>1.453525386750698</v>
       </c>
       <c r="E74" t="n">
-        <v>6.236947059631348</v>
+        <v>6.223142147064209</v>
       </c>
       <c r="F74" t="n">
-        <v>13384.44921875</v>
+        <v>3342.57470703125</v>
       </c>
     </row>
     <row r="75">
@@ -2364,17 +2360,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.51512622833252</v>
+        <v>2.63514406979084</v>
       </c>
       <c r="E75" t="n">
-        <v>6.22715425491333</v>
+        <v>6.300955295562744</v>
       </c>
       <c r="F75" t="n">
-        <v>26683.50390625</v>
+        <v>888.4848022460938</v>
       </c>
     </row>
     <row r="76">
@@ -2390,17 +2386,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.394345425069332</v>
+        <v>2.270492538809776</v>
       </c>
       <c r="E76" t="n">
-        <v>6.219221591949463</v>
+        <v>6.276794910430908</v>
       </c>
       <c r="F76" t="n">
-        <v>53239.54296875</v>
+        <v>1705.585693359375</v>
       </c>
     </row>
     <row r="77">
@@ -2416,17 +2412,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.279950607568026</v>
+        <v>2.040764130651951</v>
       </c>
       <c r="E77" t="n">
-        <v>6.211806774139404</v>
+        <v>6.261603355407715</v>
       </c>
       <c r="F77" t="n">
-        <v>106293.4609375</v>
+        <v>3371.283447265625</v>
       </c>
     </row>
     <row r="78">
@@ -2442,17 +2438,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.183323841542006</v>
+        <v>1.817074976861477</v>
       </c>
       <c r="E78" t="n">
-        <v>6.20542049407959</v>
+        <v>6.246775150299072</v>
       </c>
       <c r="F78" t="n">
-        <v>212353.15625</v>
+        <v>6703.666015625</v>
       </c>
     </row>
     <row r="79">
@@ -2468,17 +2464,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.061469875276089</v>
+        <v>1.665779761970043</v>
       </c>
       <c r="E79" t="n">
-        <v>6.197558403015137</v>
+        <v>6.236947059631348</v>
       </c>
       <c r="F79" t="n">
-        <v>546574.625</v>
+        <v>13384.44921875</v>
       </c>
     </row>
     <row r="80">
@@ -2489,22 +2485,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.265050657093525</v>
+        <v>1.51512622833252</v>
       </c>
       <c r="E80" t="n">
-        <v>6.210395812988281</v>
+        <v>6.22715425491333</v>
       </c>
       <c r="F80" t="n">
-        <v>4804.80859375</v>
+        <v>26683.50390625</v>
       </c>
     </row>
     <row r="81">
@@ -2515,22 +2511,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.600343244150281</v>
+        <v>1.394345425069332</v>
       </c>
       <c r="E81" t="n">
-        <v>6.16787576675415</v>
+        <v>6.219221591949463</v>
       </c>
       <c r="F81" t="n">
-        <v>41148.38671875</v>
+        <v>53239.54296875</v>
       </c>
     </row>
     <row r="82">
@@ -2541,22 +2537,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9757010266184807</v>
+        <v>1.279950607568026</v>
       </c>
       <c r="E82" t="n">
-        <v>6.191844940185547</v>
+        <v>6.211806774139404</v>
       </c>
       <c r="F82" t="n">
-        <v>10244.83984375</v>
+        <v>106293.4609375</v>
       </c>
     </row>
     <row r="83">
@@ -2567,22 +2563,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.75112609192729</v>
+        <v>1.183323841542006</v>
       </c>
       <c r="E83" t="n">
-        <v>6.177399158477783</v>
+        <v>6.20542049407959</v>
       </c>
       <c r="F83" t="n">
-        <v>20506.466796875</v>
+        <v>212353.15625</v>
       </c>
     </row>
     <row r="84">
@@ -2593,22 +2589,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.6083400920033455</v>
+        <v>1.061469875276089</v>
       </c>
       <c r="E84" t="n">
-        <v>6.168333530426025</v>
+        <v>6.197558403015137</v>
       </c>
       <c r="F84" t="n">
-        <v>41083.0859375</v>
+        <v>546574.625</v>
       </c>
     </row>
     <row r="85">
@@ -2619,148 +2615,152 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_16_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.5017243791371584</v>
+        <v>1.265050657093525</v>
       </c>
       <c r="E85" t="n">
-        <v>6.161616325378418</v>
+        <v>6.210395812988281</v>
       </c>
       <c r="F85" t="n">
-        <v>82816.640625</v>
+        <v>4804.80859375</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm</t>
+          <t>pomo-cvrp20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>2.996194548904896</v>
+        <v>0.600343244150281</v>
       </c>
       <c r="E86" t="n">
-        <v>6.325429916381836</v>
+        <v>6.16787576675415</v>
       </c>
       <c r="F86" t="n">
-        <v>403.8983764648438</v>
+        <v>41148.38671875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm</t>
+          <t>pomo-cvrp20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_20_num_augment_2_</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.200724929571152</v>
+        <v>0.9757010266184807</v>
       </c>
       <c r="E87" t="n">
-        <v>6.272229194641113</v>
+        <v>6.191844940185547</v>
       </c>
       <c r="F87" t="n">
-        <v>398.8951110839844</v>
+        <v>10244.83984375</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm</t>
+          <t>pomo-cvrp20</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_20_num_augment_4_</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.653451286256313</v>
+        <v>0.75112609192729</v>
       </c>
       <c r="E88" t="n">
-        <v>6.236345291137695</v>
+        <v>6.177399158477783</v>
       </c>
       <c r="F88" t="n">
-        <v>710.265869140625</v>
+        <v>20506.466796875</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm</t>
+          <t>pomo-cvrp20</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_num_augment_8_</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.240635197609663</v>
+        <v>0.6083400920033455</v>
       </c>
       <c r="E89" t="n">
-        <v>6.209320545196533</v>
+        <v>6.168333530426025</v>
       </c>
       <c r="F89" t="n">
-        <v>1383.08203125</v>
+        <v>41083.0859375</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>am-cvrp20-sm</t>
+          <t>pomo-cvrp20</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.094090845435858</v>
+        <v>0.5017243791371584</v>
       </c>
       <c r="E90" t="n">
-        <v>6.199880599975586</v>
+        <v>6.161616325378418</v>
       </c>
       <c r="F90" t="n">
-        <v>2745.1279296875</v>
+        <v>82816.640625</v>
       </c>
     </row>
     <row r="91">
@@ -2771,22 +2771,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>0.941656157374382</v>
+        <v>2.996194548904896</v>
       </c>
       <c r="E91" t="n">
-        <v>6.190024375915527</v>
+        <v>6.325429916381836</v>
       </c>
       <c r="F91" t="n">
-        <v>5465.44140625</v>
+        <v>403.8983764648438</v>
       </c>
     </row>
     <row r="92">
@@ -2802,17 +2798,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.8510519750416279</v>
+        <v>2.200724929571152</v>
       </c>
       <c r="E92" t="n">
-        <v>6.184253692626953</v>
+        <v>6.272229194641113</v>
       </c>
       <c r="F92" t="n">
-        <v>10810.015625</v>
+        <v>398.8951110839844</v>
       </c>
     </row>
     <row r="93">
@@ -2828,17 +2824,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.7862946018576622</v>
+        <v>1.653451286256313</v>
       </c>
       <c r="E93" t="n">
-        <v>6.180066108703613</v>
+        <v>6.236345291137695</v>
       </c>
       <c r="F93" t="n">
-        <v>21455.814453125</v>
+        <v>710.265869140625</v>
       </c>
     </row>
     <row r="94">
@@ -2854,17 +2850,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.7539710961282253</v>
+        <v>1.240635197609663</v>
       </c>
       <c r="E94" t="n">
-        <v>6.178019523620605</v>
+        <v>6.209320545196533</v>
       </c>
       <c r="F94" t="n">
-        <v>42837.78125</v>
+        <v>1383.08203125</v>
       </c>
     </row>
     <row r="95">
@@ -2880,17 +2876,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.7329402025789022</v>
+        <v>1.094090845435858</v>
       </c>
       <c r="E95" t="n">
-        <v>6.176645278930664</v>
+        <v>6.199880599975586</v>
       </c>
       <c r="F95" t="n">
-        <v>85503.21875</v>
+        <v>2745.1279296875</v>
       </c>
     </row>
     <row r="96">
@@ -2906,17 +2902,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.7200041320174932</v>
+        <v>0.941656157374382</v>
       </c>
       <c r="E96" t="n">
-        <v>6.175791263580322</v>
+        <v>6.190024375915527</v>
       </c>
       <c r="F96" t="n">
-        <v>229073.609375</v>
+        <v>5465.44140625</v>
       </c>
     </row>
     <row r="97">
@@ -2927,22 +2923,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.314112730324268</v>
+        <v>0.8510519750416279</v>
       </c>
       <c r="E97" t="n">
-        <v>6.214141368865967</v>
+        <v>6.184253692626953</v>
       </c>
       <c r="F97" t="n">
-        <v>1395.060791015625</v>
+        <v>10810.015625</v>
       </c>
     </row>
     <row r="98">
@@ -2953,22 +2949,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2.651041932404041</v>
+        <v>0.7862946018576622</v>
       </c>
       <c r="E98" t="n">
-        <v>6.302156925201416</v>
+        <v>6.180066108703613</v>
       </c>
       <c r="F98" t="n">
-        <v>404.5045776367188</v>
+        <v>21455.814453125</v>
       </c>
     </row>
     <row r="99">
@@ -2979,22 +2975,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.331111580133438</v>
+        <v>0.7539710961282253</v>
       </c>
       <c r="E99" t="n">
-        <v>6.280819892883301</v>
+        <v>6.178019523620605</v>
       </c>
       <c r="F99" t="n">
-        <v>727.6615600585938</v>
+        <v>42837.78125</v>
       </c>
     </row>
     <row r="100">
@@ -3005,22 +3001,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.105896174907684</v>
+        <v>0.7329402025789022</v>
       </c>
       <c r="E100" t="n">
-        <v>6.265830516815186</v>
+        <v>6.176645278930664</v>
       </c>
       <c r="F100" t="n">
-        <v>1412.777954101562</v>
+        <v>85503.21875</v>
       </c>
     </row>
     <row r="101">
@@ -3031,22 +3027,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.893732696771622</v>
+        <v>0.7200041320174932</v>
       </c>
       <c r="E101" t="n">
-        <v>6.251936435699463</v>
+        <v>6.175791263580322</v>
       </c>
       <c r="F101" t="n">
-        <v>2786.03564453125</v>
+        <v>229073.609375</v>
       </c>
     </row>
     <row r="102">
@@ -3057,22 +3053,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.744006760418415</v>
+        <v>1.314112730324268</v>
       </c>
       <c r="E102" t="n">
-        <v>6.242077827453613</v>
+        <v>6.214141368865967</v>
       </c>
       <c r="F102" t="n">
-        <v>5517.390625</v>
+        <v>1395.060791015625</v>
       </c>
     </row>
     <row r="103">
@@ -3088,17 +3084,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.596635021269321</v>
+        <v>2.651041932404041</v>
       </c>
       <c r="E103" t="n">
-        <v>6.232459545135498</v>
+        <v>6.302156925201416</v>
       </c>
       <c r="F103" t="n">
-        <v>10943.2626953125</v>
+        <v>404.5045776367188</v>
       </c>
     </row>
     <row r="104">
@@ -3114,17 +3110,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.46986311301589</v>
+        <v>2.331111580133438</v>
       </c>
       <c r="E104" t="n">
-        <v>6.224193572998047</v>
+        <v>6.280819892883301</v>
       </c>
       <c r="F104" t="n">
-        <v>21824.50390625</v>
+        <v>727.6615600585938</v>
       </c>
     </row>
     <row r="105">
@@ -3140,17 +3136,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.358830276876688</v>
+        <v>2.105896174907684</v>
       </c>
       <c r="E105" t="n">
-        <v>6.216951370239258</v>
+        <v>6.265830516815186</v>
       </c>
       <c r="F105" t="n">
-        <v>43395.671875</v>
+        <v>1412.777954101562</v>
       </c>
     </row>
     <row r="106">
@@ -3166,17 +3162,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.255602389574051</v>
+        <v>1.893732696771622</v>
       </c>
       <c r="E106" t="n">
-        <v>6.210162162780762</v>
+        <v>6.251936435699463</v>
       </c>
       <c r="F106" t="n">
-        <v>86532.5234375</v>
+        <v>2786.03564453125</v>
       </c>
     </row>
     <row r="107">
@@ -3192,17 +3188,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.134700514376163</v>
+        <v>1.744006760418415</v>
       </c>
       <c r="E107" t="n">
-        <v>6.202464580535889</v>
+        <v>6.242077827453613</v>
       </c>
       <c r="F107" t="n">
-        <v>233185.890625</v>
+        <v>5517.390625</v>
       </c>
     </row>
     <row r="108">
@@ -3213,22 +3209,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.232257019728422</v>
+        <v>1.596635021269321</v>
       </c>
       <c r="E108" t="n">
-        <v>6.20830774307251</v>
+        <v>6.232459545135498</v>
       </c>
       <c r="F108" t="n">
-        <v>4549.162109375</v>
+        <v>10943.2626953125</v>
       </c>
     </row>
     <row r="109">
@@ -3239,22 +3235,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.5227687302976847</v>
+        <v>1.46986311301589</v>
       </c>
       <c r="E109" t="n">
-        <v>6.162939071655273</v>
+        <v>6.224193572998047</v>
       </c>
       <c r="F109" t="n">
-        <v>39056.49609375</v>
+        <v>21824.50390625</v>
       </c>
     </row>
     <row r="110">
@@ -3265,22 +3261,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.8924510329961777</v>
+        <v>1.358830276876688</v>
       </c>
       <c r="E110" t="n">
-        <v>6.186563968658447</v>
+        <v>6.216951370239258</v>
       </c>
       <c r="F110" t="n">
-        <v>9788.7841796875</v>
+        <v>43395.671875</v>
       </c>
     </row>
     <row r="111">
@@ -3291,22 +3287,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.6677356082946062</v>
+        <v>1.255602389574051</v>
       </c>
       <c r="E111" t="n">
-        <v>6.172249317169189</v>
+        <v>6.210162162780762</v>
       </c>
       <c r="F111" t="n">
-        <v>19572.37109375</v>
+        <v>86532.5234375</v>
       </c>
     </row>
     <row r="112">
@@ -3317,22 +3313,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.4944575484842062</v>
+        <v>1.134700514376163</v>
       </c>
       <c r="E112" t="n">
-        <v>6.161159515380859</v>
+        <v>6.202464580535889</v>
       </c>
       <c r="F112" t="n">
-        <v>39152.83203125</v>
+        <v>233185.890625</v>
       </c>
     </row>
     <row r="113">
@@ -3343,148 +3339,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_16_</t>
+          <t>num_starts_20_</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.4280898254364729</v>
+        <v>1.232257019728422</v>
       </c>
       <c r="E113" t="n">
-        <v>6.156957149505615</v>
+        <v>6.20830774307251</v>
       </c>
       <c r="F113" t="n">
-        <v>78686.1875</v>
+        <v>4549.162109375</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>am-cvrp20</t>
+          <t>am-cvrp20-sm</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>3.919075801968575</v>
+        <v>0.5227687302976847</v>
       </c>
       <c r="E114" t="n">
-        <v>6.387429714202881</v>
+        <v>6.162939071655273</v>
       </c>
       <c r="F114" t="n">
-        <v>404.7168884277344</v>
+        <v>39056.49609375</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>am-cvrp20</t>
+          <t>am-cvrp20-sm</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_20_num_augment_2_</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2.841684967279434</v>
+        <v>0.8924510329961777</v>
       </c>
       <c r="E115" t="n">
-        <v>6.314152240753174</v>
+        <v>6.186563968658447</v>
       </c>
       <c r="F115" t="n">
-        <v>394.1621704101562</v>
+        <v>9788.7841796875</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>am-cvrp20</t>
+          <t>am-cvrp20-sm</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_20_num_augment_4_</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.122883312404156</v>
+        <v>0.6677356082946062</v>
       </c>
       <c r="E116" t="n">
-        <v>6.266376495361328</v>
+        <v>6.172249317169189</v>
       </c>
       <c r="F116" t="n">
-        <v>703.8218383789062</v>
+        <v>19572.37109375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>am-cvrp20</t>
+          <t>am-cvrp20-sm</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_20_num_augment_8_</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1.609420403838158</v>
+        <v>0.4944575484842062</v>
       </c>
       <c r="E117" t="n">
-        <v>6.232943534851074</v>
+        <v>6.161159515380859</v>
       </c>
       <c r="F117" t="n">
-        <v>1387.355102539062</v>
+        <v>39152.83203125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>am-cvrp20</t>
+          <t>am-cvrp20-sm</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.433100737631321</v>
+        <v>0.4280898254364729</v>
       </c>
       <c r="E118" t="n">
-        <v>6.221401214599609</v>
+        <v>6.156957149505615</v>
       </c>
       <c r="F118" t="n">
-        <v>2721.4521484375</v>
+        <v>78686.1875</v>
       </c>
     </row>
     <row r="119">
@@ -3495,22 +3495,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>1.28256855532527</v>
+        <v>3.919075801968575</v>
       </c>
       <c r="E119" t="n">
-        <v>6.211743354797363</v>
+        <v>6.387429714202881</v>
       </c>
       <c r="F119" t="n">
-        <v>5461.36181640625</v>
+        <v>404.7168884277344</v>
       </c>
     </row>
     <row r="120">
@@ -3526,17 +3522,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.189131941646338</v>
+        <v>2.841684967279434</v>
       </c>
       <c r="E120" t="n">
-        <v>6.205680847167969</v>
+        <v>6.314152240753174</v>
       </c>
       <c r="F120" t="n">
-        <v>10779.771484375</v>
+        <v>394.1621704101562</v>
       </c>
     </row>
     <row r="121">
@@ -3552,17 +3548,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.129420287907124</v>
+        <v>2.122883312404156</v>
       </c>
       <c r="E121" t="n">
-        <v>6.201947689056396</v>
+        <v>6.266376495361328</v>
       </c>
       <c r="F121" t="n">
-        <v>21313.525390625</v>
+        <v>703.8218383789062</v>
       </c>
     </row>
     <row r="122">
@@ -3578,17 +3574,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.098368316888809</v>
+        <v>1.609420403838158</v>
       </c>
       <c r="E122" t="n">
-        <v>6.199904441833496</v>
+        <v>6.232943534851074</v>
       </c>
       <c r="F122" t="n">
-        <v>42491.2421875</v>
+        <v>1387.355102539062</v>
       </c>
     </row>
     <row r="123">
@@ -3604,17 +3600,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.083694398403168</v>
+        <v>1.433100737631321</v>
       </c>
       <c r="E123" t="n">
-        <v>6.198988437652588</v>
+        <v>6.221401214599609</v>
       </c>
       <c r="F123" t="n">
-        <v>84957.546875</v>
+        <v>2721.4521484375</v>
       </c>
     </row>
     <row r="124">
@@ -3630,17 +3626,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.073477789759636</v>
+        <v>1.28256855532527</v>
       </c>
       <c r="E124" t="n">
-        <v>6.198338508605957</v>
+        <v>6.211743354797363</v>
       </c>
       <c r="F124" t="n">
-        <v>228207.46875</v>
+        <v>5461.36181640625</v>
       </c>
     </row>
     <row r="125">
@@ -3651,22 +3647,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.700497232377529</v>
+        <v>1.189131941646338</v>
       </c>
       <c r="E125" t="n">
-        <v>6.238885402679443</v>
+        <v>6.205680847167969</v>
       </c>
       <c r="F125" t="n">
-        <v>1389.214721679688</v>
+        <v>10779.771484375</v>
       </c>
     </row>
     <row r="126">
@@ -3677,22 +3673,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.551490232348442</v>
+        <v>1.129420287907124</v>
       </c>
       <c r="E126" t="n">
-        <v>6.362213611602783</v>
+        <v>6.201947689056396</v>
       </c>
       <c r="F126" t="n">
-        <v>405.9484252929688</v>
+        <v>21313.525390625</v>
       </c>
     </row>
     <row r="127">
@@ -3703,22 +3699,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3.190476074814796</v>
+        <v>1.098368316888809</v>
       </c>
       <c r="E127" t="n">
-        <v>6.33765983581543</v>
+        <v>6.199904441833496</v>
       </c>
       <c r="F127" t="n">
-        <v>723.93115234375</v>
+        <v>42491.2421875</v>
       </c>
     </row>
     <row r="128">
@@ -3729,22 +3725,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2.913123555481434</v>
+        <v>1.083694398403168</v>
       </c>
       <c r="E128" t="n">
-        <v>6.318999767303467</v>
+        <v>6.198988437652588</v>
       </c>
       <c r="F128" t="n">
-        <v>1410.570190429688</v>
+        <v>84957.546875</v>
       </c>
     </row>
     <row r="129">
@@ -3755,22 +3751,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2.691533230245113</v>
+        <v>1.073477789759636</v>
       </c>
       <c r="E129" t="n">
-        <v>6.304214477539062</v>
+        <v>6.198338508605957</v>
       </c>
       <c r="F129" t="n">
-        <v>2793.489501953125</v>
+        <v>228207.46875</v>
       </c>
     </row>
     <row r="130">
@@ -3781,22 +3777,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2.498799189925194</v>
+        <v>1.700497232377529</v>
       </c>
       <c r="E130" t="n">
-        <v>6.291519165039062</v>
+        <v>6.238885402679443</v>
       </c>
       <c r="F130" t="n">
-        <v>5547.83203125</v>
+        <v>1389.214721679688</v>
       </c>
     </row>
     <row r="131">
@@ -3812,17 +3808,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.325302362442017</v>
+        <v>3.551490232348442</v>
       </c>
       <c r="E131" t="n">
-        <v>6.28003978729248</v>
+        <v>6.362213611602783</v>
       </c>
       <c r="F131" t="n">
-        <v>10991.2060546875</v>
+        <v>405.9484252929688</v>
       </c>
     </row>
     <row r="132">
@@ -3838,17 +3834,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2.185365185141563</v>
+        <v>3.190476074814796</v>
       </c>
       <c r="E132" t="n">
-        <v>6.270644187927246</v>
+        <v>6.33765983581543</v>
       </c>
       <c r="F132" t="n">
-        <v>21875.361328125</v>
+        <v>723.93115234375</v>
       </c>
     </row>
     <row r="133">
@@ -3864,17 +3860,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2.05528736114502</v>
+        <v>2.913123555481434</v>
       </c>
       <c r="E133" t="n">
-        <v>6.262089729309082</v>
+        <v>6.318999767303467</v>
       </c>
       <c r="F133" t="n">
-        <v>43480.375</v>
+        <v>1410.570190429688</v>
       </c>
     </row>
     <row r="134">
@@ -3890,17 +3886,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1.927613653242588</v>
+        <v>2.691533230245113</v>
       </c>
       <c r="E134" t="n">
-        <v>6.253682613372803</v>
+        <v>6.304214477539062</v>
       </c>
       <c r="F134" t="n">
-        <v>86672.765625</v>
+        <v>2793.489501953125</v>
       </c>
     </row>
     <row r="135">
@@ -3916,17 +3912,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.780349761247635</v>
+        <v>2.498799189925194</v>
       </c>
       <c r="E135" t="n">
-        <v>6.244019508361816</v>
+        <v>6.291519165039062</v>
       </c>
       <c r="F135" t="n">
-        <v>232786.6875</v>
+        <v>5547.83203125</v>
       </c>
     </row>
     <row r="136">
@@ -3937,22 +3933,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>num_starts_20_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2.270746789872646</v>
+        <v>2.325302362442017</v>
       </c>
       <c r="E136" t="n">
-        <v>6.275786399841309</v>
+        <v>6.28003978729248</v>
       </c>
       <c r="F136" t="n">
-        <v>4550.77783203125</v>
+        <v>10991.2060546875</v>
       </c>
     </row>
     <row r="137">
@@ -3963,22 +3959,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.9447517804801464</v>
+        <v>2.185365185141563</v>
       </c>
       <c r="E137" t="n">
-        <v>6.18986177444458</v>
+        <v>6.270644187927246</v>
       </c>
       <c r="F137" t="n">
-        <v>39113.76953125</v>
+        <v>21875.361328125</v>
       </c>
     </row>
     <row r="138">
@@ -3989,22 +3985,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1.653978228569031</v>
+        <v>2.05528736114502</v>
       </c>
       <c r="E138" t="n">
-        <v>6.235506057739258</v>
+        <v>6.262089729309082</v>
       </c>
       <c r="F138" t="n">
-        <v>9764.5595703125</v>
+        <v>43480.375</v>
       </c>
     </row>
     <row r="139">
@@ -4015,22 +4011,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1.202726643532515</v>
+        <v>1.927613653242588</v>
       </c>
       <c r="E139" t="n">
-        <v>6.206390857696533</v>
+        <v>6.253682613372803</v>
       </c>
       <c r="F139" t="n">
-        <v>19521.85546875</v>
+        <v>86672.765625</v>
       </c>
     </row>
     <row r="140">
@@ -4041,22 +4037,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>num_starts_20_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.8905104361474514</v>
+        <v>1.780349761247635</v>
       </c>
       <c r="E140" t="n">
-        <v>6.186433792114258</v>
+        <v>6.244019508361816</v>
       </c>
       <c r="F140" t="n">
-        <v>39061.546875</v>
+        <v>232786.6875</v>
       </c>
     </row>
     <row r="141">
@@ -4067,21 +4063,151 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>greedy_multistart</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>num_starts_20_</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2.270746789872646</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.275786399841309</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4550.77783203125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>am-cvrp20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.9447517804801464</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.18986177444458</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39113.76953125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>am-cvrp20</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>greedy_multistart_augment</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_2_</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1.653978228569031</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.235506057739258</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9764.5595703125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>am-cvrp20</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_4_</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1.202726643532515</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.206390857696533</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19521.85546875</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>am-cvrp20</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>num_starts_20_num_augment_8_</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.8905104361474514</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.186433792114258</v>
+      </c>
+      <c r="F145" t="n">
+        <v>39061.546875</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>am-cvrp20</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>num_starts_20_num_augment_16_</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D146" t="n">
         <v>0.7847110740840435</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E146" t="n">
         <v>6.179634571075439</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F146" t="n">
         <v>78473.8671875</v>
       </c>
     </row>
